--- a/spliced/walkingToRunning/2023-03-30_14-28-27/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-28-27/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.486610889434814</v>
+        <v>0.2934486865997314</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.02692794799805</v>
+        <v>-24.41073989868164</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.421220779418945</v>
+        <v>-1.238773345947266</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5741065289701482</v>
+        <v>-1.428148408217626</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.503226176839088</v>
+        <v>1.415199639612464</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.719519167368706</v>
+        <v>1.873757413392585</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.134828090667725</v>
+        <v>2.638106346130371</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.44269371032715</v>
+        <v>-17.53305244445801</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.357526302337647</v>
+        <v>-1.380356788635254</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9217050730962066</v>
+        <v>-0.3362366334978593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2292654945401817</v>
+        <v>0.3509886704687749</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.401101356942718</v>
+        <v>0.4294003237217614</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.494446396827698</v>
+        <v>2.457366943359375</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.40649795532227</v>
+        <v>-12.19800853729248</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.447004318237305</v>
+        <v>-2.702709674835205</v>
       </c>
       <c r="F4" t="n">
-        <v>1.19596545062822</v>
+        <v>1.29839596625184</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2426663118644866</v>
+        <v>0.07410049284516276</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.187804716979447</v>
+        <v>-0.7659658990882879</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.8428599834442139</v>
+        <v>1.40507447719574</v>
       </c>
       <c r="D5" t="n">
-        <v>-13.50097179412842</v>
+        <v>-11.89906311035156</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.483202457427979</v>
+        <v>-5.299991607666016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9760257120062067</v>
+        <v>1.272031672326387</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1424154897952448</v>
+        <v>-1.028642801671032</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8590546718822623</v>
+        <v>-0.5943050091996711</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.948378562927246</v>
+        <v>7.022602081298828</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.74329948425293</v>
+        <v>-22.80319976806641</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.102754592895508</v>
+        <v>12.74471092224121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3539368301300073</v>
+        <v>0.3833239707559676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2236679532871066</v>
+        <v>-2.850368825271993</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08171037576295181</v>
+        <v>-0.3757410840134667</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.71714448928833</v>
+        <v>-13.86397647857666</v>
       </c>
       <c r="D7" t="n">
-        <v>-15.43135833740234</v>
+        <v>-20.78690338134766</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4548602104187011</v>
+        <v>3.63317346572876</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.62912566723419</v>
+        <v>0.4730243273766702</v>
       </c>
       <c r="G7" t="n">
-        <v>1.116381197617942</v>
+        <v>-4.100493916726186</v>
       </c>
       <c r="H7" t="n">
-        <v>1.465065406477321</v>
+        <v>-1.476941543751531</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.847911357879639</v>
+        <v>-2.486610889434814</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.33660507202148</v>
+        <v>-19.02692794799805</v>
       </c>
       <c r="E8" t="n">
-        <v>6.749421119689941</v>
+        <v>-5.421220779418945</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.661672166352781</v>
+        <v>0.5741065289701482</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5886271724621748</v>
+        <v>-2.503226176839088</v>
       </c>
       <c r="H8" t="n">
-        <v>3.194017144586767</v>
+        <v>-1.719519167368706</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.91429901123047</v>
+        <v>2.134828090667725</v>
       </c>
       <c r="D9" t="n">
-        <v>-23.71953201293945</v>
+        <v>-14.44269371032715</v>
       </c>
       <c r="E9" t="n">
-        <v>22.54716873168945</v>
+        <v>-4.357526302337647</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.62152429700339</v>
+        <v>0.9217050730962066</v>
       </c>
       <c r="G9" t="n">
-        <v>2.452606123751813</v>
+        <v>0.2292654945401817</v>
       </c>
       <c r="H9" t="n">
-        <v>2.296193793690959</v>
+        <v>-1.401101356942718</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.127767562866211</v>
+        <v>1.494446396827698</v>
       </c>
       <c r="D10" t="n">
-        <v>-25.82431030273437</v>
+        <v>-15.40649795532227</v>
       </c>
       <c r="E10" t="n">
-        <v>2.553998231887817</v>
+        <v>-6.447004318237305</v>
       </c>
       <c r="F10" t="n">
-        <v>2.544737715562746</v>
+        <v>1.19596545062822</v>
       </c>
       <c r="G10" t="n">
-        <v>2.399413680678499</v>
+        <v>-0.2426663118644866</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.8650669424736119</v>
+        <v>-1.187804716979447</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-12.36970138549805</v>
+        <v>-0.8428599834442139</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.04128646850586</v>
+        <v>-13.50097179412842</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.66802978515625</v>
+        <v>-3.483202457427979</v>
       </c>
       <c r="F11" t="n">
-        <v>4.244821196552569</v>
+        <v>0.9760257120062067</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.53188033121541</v>
+        <v>-0.1424154897952448</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9414239910695861</v>
+        <v>-0.8590546718822623</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-13.15851974487305</v>
+        <v>-0.948378562927246</v>
       </c>
       <c r="D12" t="n">
-        <v>-18.03956413269043</v>
+        <v>-17.74329948425293</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.630072116851807</v>
+        <v>-5.102754592895508</v>
       </c>
       <c r="F12" t="n">
-        <v>4.651211643570909</v>
+        <v>0.3539368301300073</v>
       </c>
       <c r="G12" t="n">
-        <v>2.098859643144377</v>
+        <v>0.2236679532871066</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.957986710256305</v>
+        <v>-0.08171037576295181</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15.48420429229736</v>
+        <v>2.71714448928833</v>
       </c>
       <c r="D13" t="n">
-        <v>-32.6015739440918</v>
+        <v>-15.43135833740234</v>
       </c>
       <c r="E13" t="n">
-        <v>28.89531707763672</v>
+        <v>-0.4548602104187011</v>
       </c>
       <c r="F13" t="n">
-        <v>1.55922644780575</v>
+        <v>-1.62912566723419</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8341632472193089</v>
+        <v>1.116381197617942</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.370352138012565</v>
+        <v>1.465065406477321</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12.63175868988037</v>
+        <v>5.847911357879639</v>
       </c>
       <c r="D14" t="n">
-        <v>-10.51330184936523</v>
+        <v>-17.33660507202148</v>
       </c>
       <c r="E14" t="n">
-        <v>13.76239585876465</v>
+        <v>6.749421119689941</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.001311344414123</v>
+        <v>-4.661672166352781</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.33526933457129</v>
+        <v>0.5886271724621748</v>
       </c>
       <c r="H14" t="n">
-        <v>2.328884744116308</v>
+        <v>3.194017144586767</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19.2936897277832</v>
+        <v>16.91429901123047</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.78378295898438</v>
+        <v>-23.71953201293945</v>
       </c>
       <c r="E15" t="n">
-        <v>9.518977165222168</v>
+        <v>22.54716873168945</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.313379083612446</v>
+        <v>-4.62152429700339</v>
       </c>
       <c r="G15" t="n">
-        <v>-15.71127955588033</v>
+        <v>2.452606123751813</v>
       </c>
       <c r="H15" t="n">
-        <v>2.31600133739272</v>
+        <v>2.296193793690959</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.209894180297852</v>
+        <v>7.127767562866211</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.24882507324219</v>
+        <v>-25.82431030273437</v>
       </c>
       <c r="E16" t="n">
-        <v>16.8684253692627</v>
+        <v>2.553998231887817</v>
       </c>
       <c r="F16" t="n">
-        <v>5.349856077525013</v>
+        <v>2.544737715562746</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.149664600836861</v>
+        <v>2.399413680678499</v>
       </c>
       <c r="H16" t="n">
-        <v>4.022751534557007</v>
+        <v>-0.8650669424736119</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.28531169891357</v>
+        <v>-12.36970138549805</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.773443222045898</v>
+        <v>-11.04128646850586</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.362334251403809</v>
+        <v>-19.66802978515625</v>
       </c>
       <c r="F17" t="n">
-        <v>4.662202395196333</v>
+        <v>4.244821196552569</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.257402020626782</v>
+        <v>-2.53188033121541</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9362263946735492</v>
+        <v>-0.9414239910695861</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-12.19628238677978</v>
+        <v>-13.15851974487305</v>
       </c>
       <c r="D18" t="n">
-        <v>-18.89439392089844</v>
+        <v>-18.03956413269043</v>
       </c>
       <c r="E18" t="n">
-        <v>-11.69162940979004</v>
+        <v>-7.630072116851807</v>
       </c>
       <c r="F18" t="n">
-        <v>3.284184457631085</v>
+        <v>4.651211643570909</v>
       </c>
       <c r="G18" t="n">
-        <v>3.942425561567058</v>
+        <v>2.098859643144377</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4433726047567848</v>
+        <v>-0.957986710256305</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27.13467597961425</v>
+        <v>15.48420429229736</v>
       </c>
       <c r="D19" t="n">
-        <v>-28.36122703552246</v>
+        <v>-32.6015739440918</v>
       </c>
       <c r="E19" t="n">
-        <v>6.44420337677002</v>
+        <v>28.89531707763672</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.787294496909284</v>
+        <v>1.55922644780575</v>
       </c>
       <c r="G19" t="n">
-        <v>1.309673618566504</v>
+        <v>-0.8341632472193089</v>
       </c>
       <c r="H19" t="n">
-        <v>1.816239040716114</v>
+        <v>-1.370352138012565</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3.487966060638428</v>
+        <v>12.63175868988037</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.607144355773926</v>
+        <v>-10.51330184936523</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4285287857055664</v>
+        <v>13.76239585876465</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.766657801131926</v>
+        <v>-7.001311344414123</v>
       </c>
       <c r="G20" t="n">
-        <v>2.415746399837134</v>
+        <v>-5.33526933457129</v>
       </c>
       <c r="H20" t="n">
-        <v>2.136085600870617</v>
+        <v>2.328884744116308</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>19.2936897277832</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-10.78378295898438</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.518977165222168</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-9.313379083612446</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-15.71127955588033</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.31600133739272</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6.209894180297852</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-38.24882507324219</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.8684253692627</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.349856077525013</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-9.149664600836861</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.022751534557007</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14.28531169891357</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-6.773443222045898</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-8.362334251403809</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.662202395196333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.257402020626782</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9362263946735492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-12.19628238677978</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-18.89439392089844</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-11.69162940979004</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.284184457631085</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.942425561567058</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4433726047567848</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>27.13467597961425</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-28.36122703552246</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.44420337677002</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.787294496909284</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.309673618566504</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.816239040716114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.487966060638428</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.607144355773926</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.4285287857055664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.766657801131926</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.415746399837134</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.136085600870617</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>-40.79524230957031</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>-87.16375732421875</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>55.55958557128906</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>-3.364129057669638</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>9.653811729262191</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>-2.774162345706682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-18.23663902282715</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-27.17941665649414</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-57.50062561035156</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.691667430955088</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.822626233541001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-7.046651205013665</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.547454833984377</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-6.686841011047363</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-6.594038009643555</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.03936266899109</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-6.018842667231255</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.086610792307836</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.443731307983398</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-33.3333854675293</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-12.94254684448242</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.831653899372287</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.543843676683208</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.997865703273085</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-11.20403289794922</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.358112335205078</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.592035293579102</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.046866848899856</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7223788134726359</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.788422576615722</v>
       </c>
     </row>
   </sheetData>
